--- a/MavenBook/src/test/resources/EstimateData.xlsx
+++ b/MavenBook/src/test/resources/EstimateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="EstimateHeader" sheetId="1" r:id="rId1"/>
@@ -15,46 +15,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
-  <si>
-    <t>referenceNo</t>
-  </si>
-  <si>
-    <t>customerName</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>itemName</t>
-  </si>
-  <si>
-    <t>itemQty</t>
-  </si>
-  <si>
-    <t>lary</t>
-  </si>
-  <si>
-    <t>puls</t>
-  </si>
-  <si>
-    <t>ABC Super</t>
-  </si>
-  <si>
-    <t>31-102025-2</t>
-  </si>
-  <si>
-    <t>Test Automation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Quantity</t>
+  </si>
+  <si>
+    <t>Reference Number</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Sales Person</t>
+  </si>
+  <si>
+    <t>Sales P1</t>
+  </si>
+  <si>
+    <t>Estimate Date</t>
+  </si>
+  <si>
+    <t>Terms (not in Estimate</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Indian customer</t>
+  </si>
+  <si>
+    <t>omr OB 2000</t>
+  </si>
+  <si>
+    <t>ReTest round</t>
+  </si>
+  <si>
+    <t>24112025</t>
+  </si>
+  <si>
+    <t>24112026</t>
+  </si>
+  <si>
+    <t>24112027</t>
+  </si>
+  <si>
+    <t>24112028</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Laryn</t>
+  </si>
+  <si>
+    <t>omr OB 2001</t>
+  </si>
+  <si>
+    <t>Subinm</t>
   </si>
   <si>
     <t>oph</t>
+  </si>
+  <si>
+    <t>Bp</t>
+  </si>
+  <si>
+    <t>Gcc VAT Reg Customer Oman</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +105,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,15 +144,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,104 +474,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
+      <c r="G1" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E6:E36" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MavenBook/src/test/resources/EstimateData.xlsx
+++ b/MavenBook/src/test/resources/EstimateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EstimateHeader" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Customer Name</t>
   </si>
@@ -47,46 +47,19 @@
     <t>Expiry Date</t>
   </si>
   <si>
-    <t>Indian customer</t>
-  </si>
-  <si>
-    <t>omr OB 2000</t>
-  </si>
-  <si>
     <t>ReTest round</t>
   </si>
   <si>
     <t>24112025</t>
   </si>
   <si>
-    <t>24112026</t>
-  </si>
-  <si>
-    <t>24112027</t>
-  </si>
-  <si>
-    <t>24112028</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>Laryn</t>
-  </si>
-  <si>
-    <t>omr OB 2001</t>
-  </si>
-  <si>
     <t>Subinm</t>
   </si>
   <si>
-    <t>oph</t>
-  </si>
-  <si>
-    <t>Bp</t>
-  </si>
-  <si>
-    <t>Gcc VAT Reg Customer Oman</t>
+    <t>03122025</t>
+  </si>
+  <si>
+    <t>Red Pen</t>
   </si>
 </sst>
 </file>
@@ -144,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,9 +140,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,14 +485,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>10</v>
+      <c r="A2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -531,68 +501,23 @@
         <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
@@ -729,40 +654,25 @@
       <c r="E32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="E36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E6:E36" numberStoredAsText="1"/>
+    <ignoredError sqref="E3:E33" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,91 +694,25 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MavenBook/src/test/resources/EstimateData.xlsx
+++ b/MavenBook/src/test/resources/EstimateData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="EstimateHeader" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Customer Name</t>
   </si>
@@ -41,25 +41,22 @@
     <t>Estimate Date</t>
   </si>
   <si>
-    <t>Terms (not in Estimate</t>
-  </si>
-  <si>
     <t>Expiry Date</t>
   </si>
   <si>
-    <t>ReTest round</t>
-  </si>
-  <si>
-    <t>24112025</t>
-  </si>
-  <si>
     <t>Subinm</t>
   </si>
   <si>
-    <t>03122025</t>
-  </si>
-  <si>
     <t>Red Pen</t>
+  </si>
+  <si>
+    <t>16122025</t>
+  </si>
+  <si>
+    <t>24122025</t>
+  </si>
+  <si>
+    <t>Test Automation</t>
   </si>
 </sst>
 </file>
@@ -444,215 +441,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -671,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,10 +658,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -706,10 +669,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>

--- a/MavenBook/src/test/resources/EstimateData.xlsx
+++ b/MavenBook/src/test/resources/EstimateData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Customer Name</t>
   </si>
@@ -50,20 +50,92 @@
     <t>Red Pen</t>
   </si>
   <si>
-    <t>16122025</t>
-  </si>
-  <si>
-    <t>24122025</t>
-  </si>
-  <si>
     <t>Test Automation</t>
+  </si>
+  <si>
+    <t>30-12-2025</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Discount Type</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>Customer Notes</t>
+  </si>
+  <si>
+    <t>Terms And Conditions</t>
+  </si>
+  <si>
+    <t>Save As</t>
+  </si>
+  <si>
+    <t>SAVE AND APPROVE</t>
+  </si>
+  <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
+    <t>26122025</t>
+  </si>
+  <si>
+    <t>26-12-2025</t>
+  </si>
+  <si>
+    <t>Automated one</t>
+  </si>
+  <si>
+    <t>Straberry</t>
+  </si>
+  <si>
+    <t>25-12-2025</t>
+  </si>
+  <si>
+    <t>notex</t>
+  </si>
+  <si>
+    <t>termsx</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Black Pen</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Pear</t>
+  </si>
+  <si>
+    <t>SAVE AND SUBMIT</t>
+  </si>
+  <si>
+    <t>Price List</t>
+  </si>
+  <si>
+    <t>special price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +165,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -114,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -137,6 +214,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,33 +520,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -476,16 +559,31 @@
       <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -494,62 +592,105 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="E16" s="1"/>
     </row>
@@ -625,17 +766,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E3:E33" numberStoredAsText="1"/>
+    <ignoredError sqref="E4:E33" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,9 +784,10 @@
     <col min="1" max="1" width="29" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,8 +797,14 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -664,21 +812,90 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>